--- a/results/20250402/evaluation_GpositivePseAAC_noisy_0.2.xlsx
+++ b/results/20250402/evaluation_GpositivePseAAC_noisy_0.2.xlsx
@@ -1473,10 +1473,10 @@
         </is>
       </c>
       <c r="H26" t="n">
-        <v>0.2988</v>
+        <v>0.71949</v>
       </c>
       <c r="I26" t="n">
-        <v>0.07233000000000001</v>
+        <v>0.02054</v>
       </c>
     </row>
     <row r="27">
@@ -1512,10 +1512,10 @@
         </is>
       </c>
       <c r="H27" t="n">
-        <v>0.14762</v>
+        <v>0.40996</v>
       </c>
       <c r="I27" t="n">
-        <v>0.04901</v>
+        <v>0.05847</v>
       </c>
     </row>
     <row r="28">
@@ -1553,10 +1553,10 @@
         </is>
       </c>
       <c r="H28" t="n">
-        <v>0.2954</v>
+        <v>0.72111</v>
       </c>
       <c r="I28" t="n">
-        <v>0.07275</v>
+        <v>0.02283</v>
       </c>
     </row>
     <row r="29">
@@ -1594,10 +1594,10 @@
         </is>
       </c>
       <c r="H29" t="n">
-        <v>0.13913</v>
+        <v>0.42923</v>
       </c>
       <c r="I29" t="n">
-        <v>0.04365</v>
+        <v>0.07077</v>
       </c>
     </row>
     <row r="30">
@@ -1633,10 +1633,10 @@
         </is>
       </c>
       <c r="H30" t="n">
-        <v>0.30093</v>
+        <v>0.71936</v>
       </c>
       <c r="I30" t="n">
-        <v>0.073</v>
+        <v>0.02036</v>
       </c>
     </row>
     <row r="31">
@@ -1672,10 +1672,10 @@
         </is>
       </c>
       <c r="H31" t="n">
-        <v>0.14801</v>
+        <v>0.40765</v>
       </c>
       <c r="I31" t="n">
-        <v>0.04851</v>
+        <v>0.05976</v>
       </c>
     </row>
     <row r="32">
@@ -1713,10 +1713,10 @@
         </is>
       </c>
       <c r="H32" t="n">
-        <v>0.29567</v>
+        <v>0.72412</v>
       </c>
       <c r="I32" t="n">
-        <v>0.07328</v>
+        <v>0.0229</v>
       </c>
     </row>
     <row r="33">
@@ -1754,10 +1754,10 @@
         </is>
       </c>
       <c r="H33" t="n">
-        <v>0.13875</v>
+        <v>0.4327</v>
       </c>
       <c r="I33" t="n">
-        <v>0.04416</v>
+        <v>0.07371999999999999</v>
       </c>
     </row>
     <row r="34">
@@ -1793,10 +1793,10 @@
         </is>
       </c>
       <c r="H34" t="n">
-        <v>0.57534</v>
+        <v>0.6522</v>
       </c>
       <c r="I34" t="n">
-        <v>0.07964</v>
+        <v>0.02122</v>
       </c>
     </row>
     <row r="35">
@@ -1832,10 +1832,10 @@
         </is>
       </c>
       <c r="H35" t="n">
-        <v>0.39804</v>
+        <v>0.17458</v>
       </c>
       <c r="I35" t="n">
-        <v>0.07761999999999999</v>
+        <v>0.04481</v>
       </c>
     </row>
     <row r="36">
@@ -1873,10 +1873,10 @@
         </is>
       </c>
       <c r="H36" t="n">
-        <v>0.57521</v>
+        <v>0.65182</v>
       </c>
       <c r="I36" t="n">
-        <v>0.0791</v>
+        <v>0.02122</v>
       </c>
     </row>
     <row r="37">
@@ -1914,10 +1914,10 @@
         </is>
       </c>
       <c r="H37" t="n">
-        <v>0.39765</v>
+        <v>0.17574</v>
       </c>
       <c r="I37" t="n">
-        <v>0.07728</v>
+        <v>0.04594</v>
       </c>
     </row>
     <row r="38">
@@ -1953,10 +1953,10 @@
         </is>
       </c>
       <c r="H38" t="n">
-        <v>0.57598</v>
+        <v>0.6521400000000001</v>
       </c>
       <c r="I38" t="n">
-        <v>0.07948</v>
+        <v>0.02095</v>
       </c>
     </row>
     <row r="39">
@@ -1992,10 +1992,10 @@
         </is>
       </c>
       <c r="H39" t="n">
-        <v>0.39919</v>
+        <v>0.17458</v>
       </c>
       <c r="I39" t="n">
-        <v>0.07796</v>
+        <v>0.04481</v>
       </c>
     </row>
     <row r="40">
@@ -2033,10 +2033,10 @@
         </is>
       </c>
       <c r="H40" t="n">
-        <v>0.57573</v>
+        <v>0.65188</v>
       </c>
       <c r="I40" t="n">
-        <v>0.07883999999999999</v>
+        <v>0.02108</v>
       </c>
     </row>
     <row r="41">
@@ -2074,10 +2074,10 @@
         </is>
       </c>
       <c r="H41" t="n">
-        <v>0.39842</v>
+        <v>0.17574</v>
       </c>
       <c r="I41" t="n">
-        <v>0.07772</v>
+        <v>0.04594</v>
       </c>
     </row>
     <row r="42">
@@ -3073,10 +3073,10 @@
         </is>
       </c>
       <c r="H66" t="n">
-        <v>0.37398</v>
+        <v>0.65507</v>
       </c>
       <c r="I66" t="n">
-        <v>0.03802</v>
+        <v>0.02985</v>
       </c>
     </row>
     <row r="67">
@@ -3112,10 +3112,10 @@
         </is>
       </c>
       <c r="H67" t="n">
-        <v>0.18767</v>
+        <v>0.24929</v>
       </c>
       <c r="I67" t="n">
-        <v>0.03749</v>
+        <v>0.05557</v>
       </c>
     </row>
     <row r="68">
@@ -3153,10 +3153,10 @@
         </is>
       </c>
       <c r="H68" t="n">
-        <v>0.33082</v>
+        <v>0.67179</v>
       </c>
       <c r="I68" t="n">
-        <v>0.04321</v>
+        <v>0.02994</v>
       </c>
     </row>
     <row r="69">
@@ -3194,10 +3194,10 @@
         </is>
       </c>
       <c r="H69" t="n">
-        <v>0.15801</v>
+        <v>0.33875</v>
       </c>
       <c r="I69" t="n">
-        <v>0.03784</v>
+        <v>0.05841</v>
       </c>
     </row>
     <row r="70">
@@ -3233,10 +3233,10 @@
         </is>
       </c>
       <c r="H70" t="n">
-        <v>0.3736</v>
+        <v>0.65603</v>
       </c>
       <c r="I70" t="n">
-        <v>0.03815</v>
+        <v>0.02909</v>
       </c>
     </row>
     <row r="71">
@@ -3272,10 +3272,10 @@
         </is>
       </c>
       <c r="H71" t="n">
-        <v>0.18845</v>
+        <v>0.24968</v>
       </c>
       <c r="I71" t="n">
-        <v>0.03724</v>
+        <v>0.05528</v>
       </c>
     </row>
     <row r="72">
@@ -3313,10 +3313,10 @@
         </is>
       </c>
       <c r="H72" t="n">
-        <v>0.32773</v>
+        <v>0.6750699999999999</v>
       </c>
       <c r="I72" t="n">
-        <v>0.03905</v>
+        <v>0.03001</v>
       </c>
     </row>
     <row r="73">
@@ -3354,10 +3354,10 @@
         </is>
       </c>
       <c r="H73" t="n">
-        <v>0.15954</v>
+        <v>0.34877</v>
       </c>
       <c r="I73" t="n">
-        <v>0.03313</v>
+        <v>0.05399</v>
       </c>
     </row>
     <row r="74">
@@ -3393,10 +3393,10 @@
         </is>
       </c>
       <c r="H74" t="n">
-        <v>0.47026</v>
+        <v>0.63468</v>
       </c>
       <c r="I74" t="n">
-        <v>0.04679</v>
+        <v>0.02645</v>
       </c>
     </row>
     <row r="75">
@@ -3432,10 +3432,10 @@
         </is>
       </c>
       <c r="H75" t="n">
-        <v>0.26203</v>
+        <v>0.16612</v>
       </c>
       <c r="I75" t="n">
-        <v>0.04505</v>
+        <v>0.03893</v>
       </c>
     </row>
     <row r="76">
@@ -3473,10 +3473,10 @@
         </is>
       </c>
       <c r="H76" t="n">
-        <v>0.45413</v>
+        <v>0.6398200000000001</v>
       </c>
       <c r="I76" t="n">
-        <v>0.0482</v>
+        <v>0.02792</v>
       </c>
     </row>
     <row r="77">
@@ -3514,10 +3514,10 @@
         </is>
       </c>
       <c r="H77" t="n">
-        <v>0.24699</v>
+        <v>0.19734</v>
       </c>
       <c r="I77" t="n">
-        <v>0.04566</v>
+        <v>0.04356</v>
       </c>
     </row>
     <row r="78">
@@ -3553,10 +3553,10 @@
         </is>
       </c>
       <c r="H78" t="n">
-        <v>0.47058</v>
+        <v>0.635</v>
       </c>
       <c r="I78" t="n">
-        <v>0.04642</v>
+        <v>0.02635</v>
       </c>
     </row>
     <row r="79">
@@ -3592,10 +3592,10 @@
         </is>
       </c>
       <c r="H79" t="n">
-        <v>0.26318</v>
+        <v>0.16612</v>
       </c>
       <c r="I79" t="n">
-        <v>0.04435</v>
+        <v>0.03893</v>
       </c>
     </row>
     <row r="80">
@@ -3633,10 +3633,10 @@
         </is>
       </c>
       <c r="H80" t="n">
-        <v>0.45368</v>
+        <v>0.64059</v>
       </c>
       <c r="I80" t="n">
-        <v>0.04822</v>
+        <v>0.0284</v>
       </c>
     </row>
     <row r="81">
@@ -3674,10 +3674,10 @@
         </is>
       </c>
       <c r="H81" t="n">
-        <v>0.24699</v>
+        <v>0.1985</v>
       </c>
       <c r="I81" t="n">
-        <v>0.04575</v>
+        <v>0.04438</v>
       </c>
     </row>
     <row r="82">
@@ -4673,10 +4673,10 @@
         </is>
       </c>
       <c r="H106" t="n">
-        <v>0.32274</v>
+        <v>0.71243</v>
       </c>
       <c r="I106" t="n">
-        <v>0.0524</v>
+        <v>0.01965</v>
       </c>
     </row>
     <row r="107">
@@ -4712,10 +4712,10 @@
         </is>
       </c>
       <c r="H107" t="n">
-        <v>0.16492</v>
+        <v>0.38849</v>
       </c>
       <c r="I107" t="n">
-        <v>0.05315</v>
+        <v>0.04555</v>
       </c>
     </row>
     <row r="108">
@@ -4753,10 +4753,10 @@
         </is>
       </c>
       <c r="H108" t="n">
-        <v>0.31787</v>
+        <v>0.7148099999999999</v>
       </c>
       <c r="I108" t="n">
-        <v>0.05393</v>
+        <v>0.02061</v>
       </c>
     </row>
     <row r="109">
@@ -4794,10 +4794,10 @@
         </is>
       </c>
       <c r="H109" t="n">
-        <v>0.16109</v>
+        <v>0.40774</v>
       </c>
       <c r="I109" t="n">
-        <v>0.05267</v>
+        <v>0.05256</v>
       </c>
     </row>
     <row r="110">
@@ -4833,10 +4833,10 @@
         </is>
       </c>
       <c r="H110" t="n">
-        <v>0.32545</v>
+        <v>0.71275</v>
       </c>
       <c r="I110" t="n">
-        <v>0.05139</v>
+        <v>0.0198</v>
       </c>
     </row>
     <row r="111">
@@ -4872,10 +4872,10 @@
         </is>
       </c>
       <c r="H111" t="n">
-        <v>0.16571</v>
+        <v>0.38656</v>
       </c>
       <c r="I111" t="n">
-        <v>0.05276</v>
+        <v>0.04855</v>
       </c>
     </row>
     <row r="112">
@@ -4913,10 +4913,10 @@
         </is>
       </c>
       <c r="H112" t="n">
-        <v>0.31851</v>
+        <v>0.7160300000000001</v>
       </c>
       <c r="I112" t="n">
-        <v>0.05279</v>
+        <v>0.02062</v>
       </c>
     </row>
     <row r="113">
@@ -4954,10 +4954,10 @@
         </is>
       </c>
       <c r="H113" t="n">
-        <v>0.16263</v>
+        <v>0.40851</v>
       </c>
       <c r="I113" t="n">
-        <v>0.05225</v>
+        <v>0.05232</v>
       </c>
     </row>
     <row r="114">
@@ -4993,10 +4993,10 @@
         </is>
       </c>
       <c r="H114" t="n">
-        <v>0.58929</v>
+        <v>0.64822</v>
       </c>
       <c r="I114" t="n">
-        <v>0.0677</v>
+        <v>0.02302</v>
       </c>
     </row>
     <row r="115">
@@ -5032,10 +5032,10 @@
         </is>
       </c>
       <c r="H115" t="n">
-        <v>0.42545</v>
+        <v>0.17416</v>
       </c>
       <c r="I115" t="n">
-        <v>0.07096</v>
+        <v>0.05232</v>
       </c>
     </row>
     <row r="116">
@@ -5073,10 +5073,10 @@
         </is>
       </c>
       <c r="H116" t="n">
-        <v>0.5898099999999999</v>
+        <v>0.64854</v>
       </c>
       <c r="I116" t="n">
-        <v>0.0672</v>
+        <v>0.02281</v>
       </c>
     </row>
     <row r="117">
@@ -5114,10 +5114,10 @@
         </is>
       </c>
       <c r="H117" t="n">
-        <v>0.42584</v>
+        <v>0.17493</v>
       </c>
       <c r="I117" t="n">
-        <v>0.07056</v>
+        <v>0.05237</v>
       </c>
     </row>
     <row r="118">
@@ -5153,10 +5153,10 @@
         </is>
       </c>
       <c r="H118" t="n">
-        <v>0.58929</v>
+        <v>0.64822</v>
       </c>
       <c r="I118" t="n">
-        <v>0.0677</v>
+        <v>0.02302</v>
       </c>
     </row>
     <row r="119">
@@ -5192,10 +5192,10 @@
         </is>
       </c>
       <c r="H119" t="n">
-        <v>0.42545</v>
+        <v>0.17416</v>
       </c>
       <c r="I119" t="n">
-        <v>0.07096</v>
+        <v>0.05232</v>
       </c>
     </row>
     <row r="120">
@@ -5233,10 +5233,10 @@
         </is>
       </c>
       <c r="H120" t="n">
-        <v>0.5898099999999999</v>
+        <v>0.64854</v>
       </c>
       <c r="I120" t="n">
-        <v>0.0672</v>
+        <v>0.02281</v>
       </c>
     </row>
     <row r="121">
@@ -5274,10 +5274,10 @@
         </is>
       </c>
       <c r="H121" t="n">
-        <v>0.42584</v>
+        <v>0.17493</v>
       </c>
       <c r="I121" t="n">
-        <v>0.07056</v>
+        <v>0.05237</v>
       </c>
     </row>
     <row r="122">
@@ -6273,10 +6273,10 @@
         </is>
       </c>
       <c r="H146" t="n">
-        <v>0.33409</v>
+        <v>0.68886</v>
       </c>
       <c r="I146" t="n">
-        <v>0.04751</v>
+        <v>0.02645</v>
       </c>
     </row>
     <row r="147">
@@ -6312,10 +6312,10 @@
         </is>
       </c>
       <c r="H147" t="n">
-        <v>0.16611</v>
+        <v>0.30906</v>
       </c>
       <c r="I147" t="n">
-        <v>0.03234</v>
+        <v>0.05841</v>
       </c>
     </row>
     <row r="148">
@@ -6353,10 +6353,10 @@
         </is>
       </c>
       <c r="H148" t="n">
-        <v>0.30205</v>
+        <v>0.69803</v>
       </c>
       <c r="I148" t="n">
-        <v>0.05074</v>
+        <v>0.03009</v>
       </c>
     </row>
     <row r="149">
@@ -6394,10 +6394,10 @@
         </is>
       </c>
       <c r="H149" t="n">
-        <v>0.14223</v>
+        <v>0.38649</v>
       </c>
       <c r="I149" t="n">
-        <v>0.03054</v>
+        <v>0.07124999999999999</v>
       </c>
     </row>
     <row r="150">
@@ -6433,10 +6433,10 @@
         </is>
       </c>
       <c r="H150" t="n">
-        <v>0.33711</v>
+        <v>0.68809</v>
       </c>
       <c r="I150" t="n">
-        <v>0.04851</v>
+        <v>0.02713</v>
       </c>
     </row>
     <row r="151">
@@ -6472,10 +6472,10 @@
         </is>
       </c>
       <c r="H151" t="n">
-        <v>0.16766</v>
+        <v>0.30906</v>
       </c>
       <c r="I151" t="n">
-        <v>0.03314</v>
+        <v>0.05841</v>
       </c>
     </row>
     <row r="152">
@@ -6513,10 +6513,10 @@
         </is>
       </c>
       <c r="H152" t="n">
-        <v>0.29981</v>
+        <v>0.70394</v>
       </c>
       <c r="I152" t="n">
-        <v>0.05131</v>
+        <v>0.03084</v>
       </c>
     </row>
     <row r="153">
@@ -6554,10 +6554,10 @@
         </is>
       </c>
       <c r="H153" t="n">
-        <v>0.1434</v>
+        <v>0.39689</v>
       </c>
       <c r="I153" t="n">
-        <v>0.03348</v>
+        <v>0.07421</v>
       </c>
     </row>
     <row r="154">
@@ -6593,10 +6593,10 @@
         </is>
       </c>
       <c r="H154" t="n">
-        <v>0.4701</v>
+        <v>0.65716</v>
       </c>
       <c r="I154" t="n">
-        <v>0.06516</v>
+        <v>0.02777</v>
       </c>
     </row>
     <row r="155">
@@ -6632,10 +6632,10 @@
         </is>
       </c>
       <c r="H155" t="n">
-        <v>0.2682</v>
+        <v>0.19158</v>
       </c>
       <c r="I155" t="n">
-        <v>0.05998</v>
+        <v>0.05444</v>
       </c>
     </row>
     <row r="156">
@@ -6673,10 +6673,10 @@
         </is>
       </c>
       <c r="H156" t="n">
-        <v>0.45905</v>
+        <v>0.65787</v>
       </c>
       <c r="I156" t="n">
-        <v>0.06491</v>
+        <v>0.02749</v>
       </c>
     </row>
     <row r="157">
@@ -6714,10 +6714,10 @@
         </is>
       </c>
       <c r="H157" t="n">
-        <v>0.25858</v>
+        <v>0.21123</v>
       </c>
       <c r="I157" t="n">
-        <v>0.05818</v>
+        <v>0.06074</v>
       </c>
     </row>
     <row r="158">
@@ -6753,10 +6753,10 @@
         </is>
       </c>
       <c r="H158" t="n">
-        <v>0.47087</v>
+        <v>0.65729</v>
       </c>
       <c r="I158" t="n">
-        <v>0.06559</v>
+        <v>0.02815</v>
       </c>
     </row>
     <row r="159">
@@ -6792,10 +6792,10 @@
         </is>
       </c>
       <c r="H159" t="n">
-        <v>0.26897</v>
+        <v>0.19158</v>
       </c>
       <c r="I159" t="n">
-        <v>0.05992</v>
+        <v>0.05444</v>
       </c>
     </row>
     <row r="160">
@@ -6833,10 +6833,10 @@
         </is>
       </c>
       <c r="H160" t="n">
-        <v>0.45944</v>
+        <v>0.65832</v>
       </c>
       <c r="I160" t="n">
-        <v>0.06564</v>
+        <v>0.02759</v>
       </c>
     </row>
     <row r="161">
@@ -6874,10 +6874,10 @@
         </is>
       </c>
       <c r="H161" t="n">
-        <v>0.26012</v>
+        <v>0.21084</v>
       </c>
       <c r="I161" t="n">
-        <v>0.05808</v>
+        <v>0.05995</v>
       </c>
     </row>
   </sheetData>
